--- a/Etude/Angle_Pinout_Servo.xlsx
+++ b/Etude/Angle_Pinout_Servo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Pinout InMoov Quentin</t>
   </si>
@@ -175,13 +175,124 @@
   </si>
   <si>
     <t>Res: 100K</t>
+  </si>
+  <si>
+    <t>Val min</t>
+  </si>
+  <si>
+    <t>Val Neutre</t>
+  </si>
+  <si>
+    <t>Val max</t>
+  </si>
+  <si>
+    <r>
+      <t>5° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omoplate fermé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bras droit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Angles Servo &amp; Valeurs Capteurs</t>
+  </si>
+  <si>
+    <r>
+      <t>70(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ouvert max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hélicoide a changer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +321,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -297,8 +423,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -306,27 +516,88 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -334,8 +605,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -345,33 +664,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -384,13 +677,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -404,6 +695,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -411,32 +713,172 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -447,93 +889,52 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,23 +956,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -579,72 +977,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -923,7 +1393,7 @@
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,278 +1404,382 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="G6" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F7" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="59"/>
+    </row>
+    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B7:B23"/>
+  <mergeCells count="9">
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B24"/>
     <mergeCell ref="E2:K4"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
+  <conditionalFormatting sqref="H8:H24">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>"AND($H$8:$H$24&gt;=85,$H$8:$H$24&lt;=95)"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Etude/Angle_Pinout_Servo.xlsx
+++ b/Etude/Angle_Pinout_Servo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout InMoov" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Pinout InMoov Quentin</t>
   </si>
@@ -286,6 +286,61 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>100°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bras aligné</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tourné vers l'interieur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>170°(tourné vers l'exterieur)</t>
   </si>
 </sst>
 </file>
@@ -986,30 +1041,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,15 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1067,46 +1089,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1392,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,47 +1438,47 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1465,24 +1499,24 @@
       <c r="F7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1491,272 +1525,278 @@
       <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="43"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="43"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="43"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="44"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="23" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="43"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="43"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="43"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="43"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="44"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="43"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="42" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="47" t="s">
+      <c r="F22" s="56"/>
+      <c r="G22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="60" t="s">
+      <c r="H22" s="44"/>
+      <c r="I22" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="23" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="44"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1765,18 +1805,18 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="F13:F24"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A8:A24"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B8:B24"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H24">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"AND($H$8:$H$24&gt;=85,$H$8:$H$24&lt;=95)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Etude/Angle_Pinout_Servo.xlsx
+++ b/Etude/Angle_Pinout_Servo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Pinout InMoov Quentin</t>
   </si>
@@ -341,6 +341,82 @@
   </si>
   <si>
     <t>170°(tourné vers l'exterieur)</t>
+  </si>
+  <si>
+    <t>Arduino B</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>Nano</t>
+  </si>
+  <si>
+    <t>Voix InMoov</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Servo Bouche</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Néopixel Estomac (16 leds) </t>
+  </si>
+  <si>
+    <r>
+      <t>145° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouche ouverte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>58° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouche fermé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -400,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -473,17 +549,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -683,15 +748,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -984,11 +1040,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,38 +1077,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,91 +1119,121 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F29" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1534,7 @@
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
@@ -1444,41 +1543,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1487,7 +1586,7 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1496,315 +1595,374 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="51"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="50" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="8" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="32"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="32"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="32"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="50" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="8" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="31" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="45"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="12" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="46" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="50" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="66"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="69"/>
+      <c r="I30" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="E2:K4"/>
     <mergeCell ref="F13:F24"/>
     <mergeCell ref="G6:I6"/>

--- a/Etude/Angle_Pinout_Servo.xlsx
+++ b/Etude/Angle_Pinout_Servo.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pinout InMoov" sheetId="1" r:id="rId1"/>
+    <sheet name="Pinout_InMoov" sheetId="1" r:id="rId1"/>
+    <sheet name="Arduino_Mega_Gauche" sheetId="2" r:id="rId2"/>
+    <sheet name="Arduino_Mega_Droite" sheetId="3" r:id="rId3"/>
+    <sheet name="Arduino_Nano" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="165">
   <si>
     <t>Pinout InMoov Quentin</t>
   </si>
@@ -51,21 +54,6 @@
     <t>Nom Servo/Capteur</t>
   </si>
   <si>
-    <t>Capteur Pouce</t>
-  </si>
-  <si>
-    <t>Capteur Index</t>
-  </si>
-  <si>
-    <t>Capteur Majeur</t>
-  </si>
-  <si>
-    <t>Capteur Annulaire</t>
-  </si>
-  <si>
-    <t>Capteur Auriculaire</t>
-  </si>
-  <si>
     <t>A14</t>
   </si>
   <si>
@@ -84,24 +72,6 @@
     <t>Servo Main Droite</t>
   </si>
   <si>
-    <t>Servo Pouce</t>
-  </si>
-  <si>
-    <t>Servo Index</t>
-  </si>
-  <si>
-    <t>Servo Majeur</t>
-  </si>
-  <si>
-    <t>Servo Annulaire</t>
-  </si>
-  <si>
-    <t>Servo Auriculaire</t>
-  </si>
-  <si>
-    <t>Servo Poignet</t>
-  </si>
-  <si>
     <t>Parametre Autre</t>
   </si>
   <si>
@@ -126,18 +96,6 @@
     <t>Servo Bras Droit</t>
   </si>
   <si>
-    <t>Servo Bicep</t>
-  </si>
-  <si>
-    <t>Servo Rotation</t>
-  </si>
-  <si>
-    <t>Servo Epaule</t>
-  </si>
-  <si>
-    <t>Servo Omoplate</t>
-  </si>
-  <si>
     <t>D20</t>
   </si>
   <si>
@@ -153,12 +111,6 @@
     <t>Neck Droit</t>
   </si>
   <si>
-    <t>Rolling Neck Left</t>
-  </si>
-  <si>
-    <t>Rolling Neck Right</t>
-  </si>
-  <si>
     <t>D13</t>
   </si>
   <si>
@@ -184,6 +136,155 @@
   </si>
   <si>
     <t>Val max</t>
+  </si>
+  <si>
+    <t>Angles Servo &amp; Valeurs Capteurs</t>
+  </si>
+  <si>
+    <t>Arduino B</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>Nano</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>PIR</t>
+  </si>
+  <si>
+    <t>Capteur doigts Gauche</t>
+  </si>
+  <si>
+    <t>Ultrason x2</t>
+  </si>
+  <si>
+    <t>Servo Main Gauche</t>
+  </si>
+  <si>
+    <t>Servo Bras Gauche</t>
+  </si>
+  <si>
+    <t>Neck Gauche</t>
+  </si>
+  <si>
+    <t>EYES</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>Estomac</t>
+  </si>
+  <si>
+    <r>
+      <t>20°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bicep ouvert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bicep fermé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tourné vers l'interieur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>170°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tourné vers l'exterieur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -192,7 +293,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -202,7 +303,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -213,22 +314,22 @@
   </si>
   <si>
     <r>
-      <t>85° (</t>
+      <t>35°(</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bras droit</t>
+      <t>Bas</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -238,16 +339,45 @@
     </r>
   </si>
   <si>
-    <t>Angles Servo &amp; Valeurs Capteurs</t>
-  </si>
-  <si>
     <r>
-      <t>70(</t>
+      <t>130°(</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>100°</t>
+  </si>
+  <si>
+    <t>85°</t>
+  </si>
+  <si>
+    <r>
+      <t>70°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -257,28 +387,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hélicoide a changer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -289,22 +398,22 @@
   </si>
   <si>
     <r>
-      <t>100°(</t>
+      <t>140°(</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bras aligné</t>
+      <t>Levé</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -315,22 +424,22 @@
   </si>
   <si>
     <r>
-      <t>5°(</t>
+      <t>50°(</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tourné vers l'interieur</t>
+      <t>arriere</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -340,31 +449,88 @@
     </r>
   </si>
   <si>
-    <t>170°(tourné vers l'exterieur)</t>
-  </si>
-  <si>
-    <t>Arduino B</t>
-  </si>
-  <si>
-    <t>Arduino Nano</t>
-  </si>
-  <si>
-    <t>Nano</t>
-  </si>
-  <si>
-    <t>Voix InMoov</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>Servo Bouche</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Néopixel Estomac (16 leds) </t>
+    <r>
+      <t>30°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Droite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>150°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gauche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vocal</t>
+  </si>
+  <si>
+    <t>Leds</t>
+  </si>
+  <si>
+    <r>
+      <t>58° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouche fermé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -373,7 +539,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -383,7 +549,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -393,37 +559,296 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>58° (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bouche fermé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>IOREF</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>3,3V</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Analogic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>AREF</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>SDA1</t>
+  </si>
+  <si>
+    <t>SCL1</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>CAPTEUR POUCE</t>
+  </si>
+  <si>
+    <t>CAPTEUR INDEX</t>
+  </si>
+  <si>
+    <t>CAPTEUR MAJEUR</t>
+  </si>
+  <si>
+    <t>CAPTEUR ANNULAIRE</t>
+  </si>
+  <si>
+    <t>CAPTEUR AURICULAIRE</t>
+  </si>
+  <si>
+    <t>SERVO POUCE</t>
+  </si>
+  <si>
+    <t>SERVO INDEX</t>
+  </si>
+  <si>
+    <t>SERVO MAJEUR</t>
+  </si>
+  <si>
+    <t>SERVO ANNULAIRE</t>
+  </si>
+  <si>
+    <t>SERVO AURICULAIRE</t>
+  </si>
+  <si>
+    <t>SERVO POIGNET</t>
+  </si>
+  <si>
+    <t>SERVO BICEP</t>
+  </si>
+  <si>
+    <t>SERVO ROTATION</t>
+  </si>
+  <si>
+    <t>SERVO EPAULE</t>
+  </si>
+  <si>
+    <t>SERVO OMOPLATE</t>
+  </si>
+  <si>
+    <t>ROLLING NECK LEFT</t>
+  </si>
+  <si>
+    <t>ROLLING NECK RIGHT</t>
+  </si>
+  <si>
+    <t>ARTICULATING NECK</t>
+  </si>
+  <si>
+    <t>NECK ROTATION</t>
+  </si>
+  <si>
+    <t>VOIX INMOOV</t>
+  </si>
+  <si>
+    <t>SERVO BOUCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </t>
+  </si>
+  <si>
+    <t>GAUCHE</t>
+  </si>
+  <si>
+    <t>EYES "X"</t>
+  </si>
+  <si>
+    <t>EYES "Y"</t>
+  </si>
+  <si>
+    <t>LOW ESTOMAC</t>
+  </si>
+  <si>
+    <t>MID ESTOMAC</t>
+  </si>
+  <si>
+    <t>Type Pinout arduino</t>
+  </si>
+  <si>
+    <t>DROITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00\°"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,29 +879,104 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -699,21 +1199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -844,43 +1329,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -1012,26 +1460,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1044,11 +1490,110 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1057,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,178 +1613,364 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1249,6 +1980,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6600FF"/>
+      <color rgb="FF6600CC"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1258,6 +1997,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1452" r="1452"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="295273"/>
+          <a:ext cx="4181475" cy="8134352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19063</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11991987" y="1762126"/>
+          <a:ext cx="3733800" cy="1200147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1452" r="1452"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="295273"/>
+          <a:ext cx="4181475" cy="8134352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19064</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14116622" y="1749800"/>
+          <a:ext cx="3812241" cy="1191182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589989</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3625102" y="280147"/>
+          <a:ext cx="1805828" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,70 +2495,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F30"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="45" t="s">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1595,385 +2574,760 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="M8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32">
+        <v>95</v>
+      </c>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42">
+        <v>90</v>
+      </c>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="94"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="64"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="68"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="94"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="64"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="68"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="94"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="68"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="94"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="94"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="68"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="94"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="68"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="94"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="68"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="94"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="64"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="68"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="94"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="52"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="94"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="94"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="68"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="94"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="64"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="68"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="94"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="94"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="13">
+        <v>90</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="50"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="94"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="94"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="D44" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="95"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="52"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="77"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="F47" s="79"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="65"/>
+      <c r="J47" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="43"/>
-    </row>
-    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="65"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="62"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="F13:F24"/>
-    <mergeCell ref="G6:I6"/>
+  <mergeCells count="21">
     <mergeCell ref="A8:A24"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B8:B24"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B25:B45"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H24">
+  <conditionalFormatting sqref="I8:I24">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>"AND($H$8:$H$24&gt;=85,$H$8:$H$24&lt;=95)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I48 J48 H48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"AND($H$8:$H$24&gt;=85,$H$8:$H$24&lt;=95)"</formula>
     </cfRule>
@@ -1981,4 +3335,1648 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="114"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S5,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="82"/>
+      <c r="V5" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="W5" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V5,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S6,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="82"/>
+      <c r="V6" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V6,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S7,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="82"/>
+      <c r="V7" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V7,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S8" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="82"/>
+      <c r="V8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S9" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="82"/>
+      <c r="V9" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S10" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="82"/>
+      <c r="V10" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="W10" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S11,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S11" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="T11" s="82"/>
+      <c r="V11" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="W11" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V11,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S12,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="82"/>
+      <c r="V12" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V12,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="55"/>
+      <c r="N13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S13,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S13" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="82"/>
+      <c r="V13" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V13,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="55"/>
+      <c r="N14" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S14,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S14" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="82"/>
+      <c r="V14" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V14,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R15" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S15" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="82"/>
+      <c r="V15" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R16" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S16" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="82"/>
+      <c r="V16" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="W16" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R17" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S17" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" s="82"/>
+      <c r="V17" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="W17" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R18" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="T18" s="82"/>
+      <c r="V18" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R19" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="T19" s="82"/>
+      <c r="V19" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="W19" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R20" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(S20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="82"/>
+      <c r="V20" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="W20" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="113"/>
+      <c r="N21" s="10"/>
+      <c r="S21" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" s="62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N22=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N22,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="55"/>
+      <c r="N23" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N23=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N23,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F24,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N24=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N24,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F25,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N25=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N25,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F26,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N26=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N26,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F27,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N27=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N27,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="O29" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F30,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="61"/>
+    </row>
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="10"/>
+      <c r="N32" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N32,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F34,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N34=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N34,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F35,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N35=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N35,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F36,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N36=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N36,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F37,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N37=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N37,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F39,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="80" t="str">
+        <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(F40,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W42"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="114"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="82"/>
+      <c r="V5" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="W5" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="82"/>
+      <c r="V6" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="82"/>
+      <c r="V7" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S8" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="82"/>
+      <c r="V8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S9" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="82"/>
+      <c r="V9" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S10" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="82"/>
+      <c r="V10" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="W10" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S11" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="T11" s="82"/>
+      <c r="V11" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="W11" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="82"/>
+      <c r="V12" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="55"/>
+      <c r="N13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S13" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="82"/>
+      <c r="V13" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="55"/>
+      <c r="N14" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S14" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="82"/>
+      <c r="V14" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>ROLLING NECK LEFT</v>
+      </c>
+      <c r="R15" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S15" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="82"/>
+      <c r="V15" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>ROLLING NECK RIGHT</v>
+      </c>
+      <c r="R16" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S16" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="82"/>
+      <c r="V16" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="W16" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R17" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S17" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" s="82"/>
+      <c r="V17" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="W17" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R18" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="T18" s="82"/>
+      <c r="V18" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R19" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="T19" s="82"/>
+      <c r="V19" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="W19" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="R20" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(S20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="82"/>
+      <c r="V20" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="W20" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="113"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="119"/>
+      <c r="S21" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" s="84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N22=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N22,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO POIGNET</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="55"/>
+      <c r="N23" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N23=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N23,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO AURICULAIRE</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO ANNULAIRE</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO MAJEUR</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO INDEX</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO POUCE</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="O29" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F30,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="119"/>
+    </row>
+    <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="119"/>
+      <c r="F32" s="83"/>
+      <c r="N32" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N32,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO OMOPLATE</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>CAPTEUR AURICULAIRE</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO EPAULE</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>CAPTEUR ANNULAIRE</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO ROTATION</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>CAPTEUR MAJEUR</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>SERVO BICEP</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>CAPTEUR INDEX</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F39,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>CAPTEUR POUCE</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="83"/>
+    </row>
+    <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F40,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" s="83"/>
+    </row>
+    <row r="41" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="83"/>
+    </row>
+    <row r="42" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F20:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I4=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I4,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M4=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M4,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M5=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M5,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M6=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M6,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I7=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I7,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M7=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M7,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>VOIX INMOOV</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>SERVO BOUCHE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(I14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M17=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M17,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="118" t="str">
+        <f>IF(SUMPRODUCT(--(M18=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M18,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
+        <v>LIBRE</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Etude/Angle_Pinout_Servo.xlsx
+++ b/Etude/Angle_Pinout_Servo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout_InMoov" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="171">
   <si>
     <t>Pinout InMoov Quentin</t>
   </si>
@@ -181,58 +181,6 @@
   </si>
   <si>
     <t>Estomac</t>
-  </si>
-  <si>
-    <r>
-      <t>20°(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bicep ouvert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85°(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bicep fermé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -288,7 +236,506 @@
   </si>
   <si>
     <r>
-      <t>5° (</t>
+      <t>35°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>130°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>100°</t>
+  </si>
+  <si>
+    <r>
+      <t>50°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arriere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Droite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>150°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gauche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vocal</t>
+  </si>
+  <si>
+    <t>Leds</t>
+  </si>
+  <si>
+    <r>
+      <t>58° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouche fermé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>145° (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bouche ouverte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>IOREF</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>3,3V</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Analogic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>AREF</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>SDA1</t>
+  </si>
+  <si>
+    <t>SCL1</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>CAPTEUR POUCE</t>
+  </si>
+  <si>
+    <t>CAPTEUR INDEX</t>
+  </si>
+  <si>
+    <t>CAPTEUR MAJEUR</t>
+  </si>
+  <si>
+    <t>CAPTEUR ANNULAIRE</t>
+  </si>
+  <si>
+    <t>CAPTEUR AURICULAIRE</t>
+  </si>
+  <si>
+    <t>SERVO POUCE</t>
+  </si>
+  <si>
+    <t>SERVO INDEX</t>
+  </si>
+  <si>
+    <t>SERVO MAJEUR</t>
+  </si>
+  <si>
+    <t>SERVO ANNULAIRE</t>
+  </si>
+  <si>
+    <t>SERVO AURICULAIRE</t>
+  </si>
+  <si>
+    <t>SERVO POIGNET</t>
+  </si>
+  <si>
+    <t>SERVO BICEP</t>
+  </si>
+  <si>
+    <t>SERVO ROTATION</t>
+  </si>
+  <si>
+    <t>SERVO EPAULE</t>
+  </si>
+  <si>
+    <t>SERVO OMOPLATE</t>
+  </si>
+  <si>
+    <t>ROLLING NECK LEFT</t>
+  </si>
+  <si>
+    <t>ROLLING NECK RIGHT</t>
+  </si>
+  <si>
+    <t>ARTICULATING NECK</t>
+  </si>
+  <si>
+    <t>NECK ROTATION</t>
+  </si>
+  <si>
+    <t>VOIX INMOOV</t>
+  </si>
+  <si>
+    <t>SERVO BOUCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </t>
+  </si>
+  <si>
+    <t>GAUCHE</t>
+  </si>
+  <si>
+    <t>EYES "X"</t>
+  </si>
+  <si>
+    <t>EYES "Y"</t>
+  </si>
+  <si>
+    <t>LOW ESTOMAC</t>
+  </si>
+  <si>
+    <t>MID ESTOMAC</t>
+  </si>
+  <si>
+    <t>Type Pinout arduino</t>
+  </si>
+  <si>
+    <t>DROITE</t>
+  </si>
+  <si>
+    <r>
+      <t>65°(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ouvert max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8° (</t>
     </r>
     <r>
       <rPr>
@@ -313,92 +760,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>35°(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>130°(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Haut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>100°</t>
-  </si>
-  <si>
-    <t>85°</t>
-  </si>
-  <si>
-    <r>
-      <t>70°(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ouvert max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>140°(</t>
+    <t>88°</t>
+  </si>
+  <si>
+    <r>
+      <t>180°(</t>
     </r>
     <r>
       <rPr>
@@ -424,7 +790,7 @@
   </si>
   <si>
     <r>
-      <t>50°(</t>
+      <t>5°(b</t>
     </r>
     <r>
       <rPr>
@@ -435,7 +801,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>arriere</t>
+      <t>icep ouvert</t>
     </r>
     <r>
       <rPr>
@@ -450,7 +816,7 @@
   </si>
   <si>
     <r>
-      <t>30°(</t>
+      <t>85°(b</t>
     </r>
     <r>
       <rPr>
@@ -461,7 +827,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Droite</t>
+      <t>icep fermé</t>
     </r>
     <r>
       <rPr>
@@ -476,7 +842,7 @@
   </si>
   <si>
     <r>
-      <t>150°(</t>
+      <t>30°</t>
     </r>
     <r>
       <rPr>
@@ -487,28 +853,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gauche</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Vocal</t>
-  </si>
-  <si>
-    <t>Leds</t>
-  </si>
-  <si>
-    <r>
-      <t>58° (</t>
+      <t>(ouvert)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40°</t>
     </r>
     <r>
       <rPr>
@@ -519,22 +869,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bouche fermé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>145° (</t>
+      <t>(ouvert)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25°</t>
     </r>
     <r>
       <rPr>
@@ -545,300 +885,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bouche ouverte</t>
+      <t>(vers l'exterieur)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>160°</t>
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>N/C</t>
-  </si>
-  <si>
-    <t>IOREF</t>
-  </si>
-  <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>3,3V</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>Vin</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>Analogic</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>Alim</t>
-  </si>
-  <si>
-    <t>AREF</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>SDA1</t>
-  </si>
-  <si>
-    <t>SCL1</t>
-  </si>
-  <si>
-    <t>D21</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D52</t>
-  </si>
-  <si>
-    <t>D50</t>
-  </si>
-  <si>
-    <t>D22</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
-    <t>D26</t>
-  </si>
-  <si>
-    <t>D28</t>
-  </si>
-  <si>
-    <t>D30</t>
-  </si>
-  <si>
-    <t>D32</t>
-  </si>
-  <si>
-    <t>D34</t>
-  </si>
-  <si>
-    <t>D36</t>
-  </si>
-  <si>
-    <t>D38</t>
-  </si>
-  <si>
-    <t>D40</t>
-  </si>
-  <si>
-    <t>D42</t>
-  </si>
-  <si>
-    <t>D44</t>
-  </si>
-  <si>
-    <t>D46</t>
-  </si>
-  <si>
-    <t>D48</t>
-  </si>
-  <si>
-    <t>D53</t>
-  </si>
-  <si>
-    <t>D51</t>
-  </si>
-  <si>
-    <t>D23</t>
-  </si>
-  <si>
-    <t>D25</t>
-  </si>
-  <si>
-    <t>D27</t>
-  </si>
-  <si>
-    <t>D29</t>
-  </si>
-  <si>
-    <t>D31</t>
-  </si>
-  <si>
-    <t>D33</t>
-  </si>
-  <si>
-    <t>D35</t>
-  </si>
-  <si>
-    <t>D37</t>
-  </si>
-  <si>
-    <t>D39</t>
-  </si>
-  <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>D43</t>
-  </si>
-  <si>
-    <t>D45</t>
-  </si>
-  <si>
-    <t>D47</t>
-  </si>
-  <si>
-    <t>D49</t>
-  </si>
-  <si>
-    <t>CAPTEUR POUCE</t>
-  </si>
-  <si>
-    <t>CAPTEUR INDEX</t>
-  </si>
-  <si>
-    <t>CAPTEUR MAJEUR</t>
-  </si>
-  <si>
-    <t>CAPTEUR ANNULAIRE</t>
-  </si>
-  <si>
-    <t>CAPTEUR AURICULAIRE</t>
-  </si>
-  <si>
-    <t>SERVO POUCE</t>
-  </si>
-  <si>
-    <t>SERVO INDEX</t>
-  </si>
-  <si>
-    <t>SERVO MAJEUR</t>
-  </si>
-  <si>
-    <t>SERVO ANNULAIRE</t>
-  </si>
-  <si>
-    <t>SERVO AURICULAIRE</t>
-  </si>
-  <si>
-    <t>SERVO POIGNET</t>
-  </si>
-  <si>
-    <t>SERVO BICEP</t>
-  </si>
-  <si>
-    <t>SERVO ROTATION</t>
-  </si>
-  <si>
-    <t>SERVO EPAULE</t>
-  </si>
-  <si>
-    <t>SERVO OMOPLATE</t>
-  </si>
-  <si>
-    <t>ROLLING NECK LEFT</t>
-  </si>
-  <si>
-    <t>ROLLING NECK RIGHT</t>
-  </si>
-  <si>
-    <t>ARTICULATING NECK</t>
-  </si>
-  <si>
-    <t>NECK ROTATION</t>
-  </si>
-  <si>
-    <t>VOIX INMOOV</t>
-  </si>
-  <si>
-    <t>SERVO BOUCHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </t>
-  </si>
-  <si>
-    <t>GAUCHE</t>
-  </si>
-  <si>
-    <t>EYES "X"</t>
-  </si>
-  <si>
-    <t>EYES "Y"</t>
-  </si>
-  <si>
-    <t>LOW ESTOMAC</t>
-  </si>
-  <si>
-    <t>MID ESTOMAC</t>
-  </si>
-  <si>
-    <t>Type Pinout arduino</t>
-  </si>
-  <si>
-    <t>DROITE</t>
+      <t>(fermé)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>170°</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(fermé)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100°</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(vers l'interieur)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1854,96 +1950,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1964,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2497,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2519,44 +2615,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="104" t="s">
+      <c r="H6" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2575,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>16</v>
@@ -2594,17 +2690,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -2621,11 +2717,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>11</v>
@@ -2639,11 +2735,11 @@
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>12</v>
@@ -2657,11 +2753,11 @@
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>13</v>
@@ -2675,11 +2771,11 @@
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>14</v>
@@ -2693,203 +2789,227 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="110" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="31" t="s">
+        <v>165</v>
+      </c>
       <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="J13" s="33" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="33" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="33" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="33" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="33" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="112"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="29" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="110" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="93" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="102"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="31" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="36" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="102"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="102"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="112"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="102"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="27" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="38" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="110" t="s">
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="102"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="31"/>
       <c r="I23" s="32">
         <v>95</v>
@@ -2897,17 +3017,17 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="112"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="67" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42">
         <v>90</v>
@@ -2915,377 +3035,377 @@
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="104" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="115"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="50"/>
       <c r="H25" s="49"/>
       <c r="I25" s="14"/>
       <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="64" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E26" s="64"/>
-      <c r="F26" s="116"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="68"/>
       <c r="H26" s="69"/>
       <c r="I26" s="64"/>
       <c r="J26" s="68"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="98"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="64" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E27" s="64"/>
-      <c r="F27" s="116"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="68"/>
       <c r="H27" s="69"/>
       <c r="I27" s="64"/>
       <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="64" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E28" s="64"/>
-      <c r="F28" s="116"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="68"/>
       <c r="H28" s="69"/>
       <c r="I28" s="64"/>
       <c r="J28" s="68"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="89"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="117"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="52"/>
       <c r="H29" s="51"/>
       <c r="I29" s="12"/>
       <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="88" t="s">
+      <c r="A30" s="114"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="104" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="115"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="50"/>
       <c r="H30" s="70"/>
       <c r="I30" s="71"/>
       <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="64" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E31" s="64"/>
-      <c r="F31" s="116"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="68"/>
       <c r="H31" s="69"/>
       <c r="I31" s="64"/>
       <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="98"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="64" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E32" s="64"/>
-      <c r="F32" s="116"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="68"/>
       <c r="H32" s="69"/>
       <c r="I32" s="64"/>
       <c r="J32" s="68"/>
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="98"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="64" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E33" s="64"/>
-      <c r="F33" s="116"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="68"/>
       <c r="H33" s="69"/>
       <c r="I33" s="64"/>
       <c r="J33" s="68"/>
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="98"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="64" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E34" s="64"/>
-      <c r="F34" s="116"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="64"/>
       <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="89"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="117"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="52"/>
       <c r="H35" s="51"/>
       <c r="I35" s="12"/>
       <c r="J35" s="52"/>
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="88" t="s">
+      <c r="A36" s="114"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="104" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="115"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="50"/>
       <c r="H36" s="70"/>
       <c r="I36" s="71"/>
       <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="98"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="64" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E37" s="64"/>
-      <c r="F37" s="116"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="68"/>
       <c r="H37" s="69"/>
       <c r="I37" s="64"/>
       <c r="J37" s="68"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="98"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="64" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E38" s="64"/>
-      <c r="F38" s="116"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="68"/>
       <c r="H38" s="69"/>
       <c r="I38" s="64"/>
       <c r="J38" s="68"/>
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="89"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="117"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="52"/>
       <c r="H39" s="73"/>
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="88" t="s">
+      <c r="A40" s="114"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="104" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="14"/>
       <c r="G40" s="47"/>
       <c r="H40" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>51</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="89"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="117"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="52"/>
       <c r="H41" s="51" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I41" s="13">
         <v>90</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="88" t="s">
+      <c r="A42" s="114"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="115"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="50"/>
       <c r="H42" s="49"/>
       <c r="I42" s="14"/>
       <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="117"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="52"/>
       <c r="H43" s="51"/>
       <c r="I43" s="12"/>
       <c r="J43" s="52"/>
     </row>
     <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="88" t="s">
+      <c r="A44" s="114"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="104" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="115"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="50"/>
       <c r="H44" s="70"/>
       <c r="I44" s="71"/>
       <c r="J44" s="72"/>
     </row>
     <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="95"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="89"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="117"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="52"/>
       <c r="H45" s="51"/>
       <c r="I45" s="12"/>
       <c r="J45" s="52"/>
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="85" t="s">
-        <v>67</v>
+      <c r="C46" s="107" t="s">
+        <v>61</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="43"/>
-      <c r="G46" s="96"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="76"/>
       <c r="I46" s="43"/>
       <c r="J46" s="77"/>
     </row>
     <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="45" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E47" s="44" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="79"/>
-      <c r="G47" s="97"/>
+      <c r="G47" s="117"/>
       <c r="H47" s="45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I47" s="65"/>
       <c r="J47" s="46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E48" s="54" t="s">
         <v>43</v>
@@ -3300,17 +3420,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="G13:G24"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C35"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B25:B45"/>
@@ -3321,6 +3430,17 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="G13:G24"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:I24">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -3341,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3358,43 +3478,43 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="114"/>
+        <v>84</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S4" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V4" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R5" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S5,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S5" s="60" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T5" s="82"/>
       <c r="V5" s="60" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="W5" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V5,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3403,18 +3523,18 @@
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R6" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S6,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S6" s="60" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="T6" s="82"/>
       <c r="V6" s="60" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="W6" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V6,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3423,18 +3543,18 @@
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R7" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S7,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S7" s="60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="T7" s="82"/>
       <c r="V7" s="60" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W7" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V7,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3447,11 +3567,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S8" s="60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="T8" s="82"/>
       <c r="V8" s="60" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="W8" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V8,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3464,11 +3584,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S9" s="60" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="T9" s="82"/>
       <c r="V9" s="60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="W9" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V9,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3481,11 +3601,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S10" s="60" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="T10" s="82"/>
       <c r="V10" s="60" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="W10" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V10,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3494,18 +3614,18 @@
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="81" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R11" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S11,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S11" s="60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="T11" s="82"/>
       <c r="V11" s="60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="W11" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V11,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3514,18 +3634,18 @@
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N12" s="81" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="R12" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S12,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T12" s="82"/>
       <c r="V12" s="60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="W12" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V12,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3535,18 +3655,18 @@
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="55"/>
       <c r="N13" s="63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R13" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S13,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="T13" s="82"/>
       <c r="V13" s="60" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="W13" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V13,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3556,18 +3676,18 @@
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="55"/>
       <c r="N14" s="62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="R14" s="80" t="str">
         <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(S14,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T14" s="82"/>
       <c r="V14" s="60" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W14" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V14,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3576,7 +3696,7 @@
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N15" s="60" t="s">
         <v>29</v>
@@ -3590,11 +3710,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T15" s="82"/>
       <c r="V15" s="60" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="W15" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V15,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3603,7 +3723,7 @@
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="63" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N16" s="60" t="s">
         <v>30</v>
@@ -3617,11 +3737,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="T16" s="82"/>
       <c r="V16" s="60" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="W16" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V16,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3630,10 +3750,10 @@
     </row>
     <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="57" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N17" s="60" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O17" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3644,11 +3764,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="T17" s="82"/>
       <c r="V17" s="60" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="W17" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V17,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3657,10 +3777,10 @@
     </row>
     <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="63" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N18" s="60" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O18" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3671,11 +3791,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="T18" s="82"/>
       <c r="V18" s="60" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="W18" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V18,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3684,7 +3804,7 @@
     </row>
     <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N19" s="60" t="s">
         <v>43</v>
@@ -3698,11 +3818,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S19" s="60" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T19" s="82"/>
       <c r="V19" s="60" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="W19" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V19,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3710,11 +3830,11 @@
       </c>
     </row>
     <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="113" t="s">
-        <v>76</v>
+      <c r="F20" s="118" t="s">
+        <v>70</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O20" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3725,11 +3845,11 @@
         <v>LIBRE</v>
       </c>
       <c r="S20" s="60" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T20" s="82"/>
       <c r="V20" s="60" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W20" s="80" t="str">
         <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(V20,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3737,18 +3857,18 @@
       </c>
     </row>
     <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="113"/>
+      <c r="F21" s="118"/>
       <c r="N21" s="10"/>
       <c r="S21" s="62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="V21" s="62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N22" s="60" t="s">
         <v>22</v>
@@ -3774,7 +3894,7 @@
         <v>LIBRE</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N24" s="60" t="s">
         <v>20</v>
@@ -3790,7 +3910,7 @@
         <v>LIBRE</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N25" s="60" t="s">
         <v>19</v>
@@ -3806,7 +3926,7 @@
         <v>LIBRE</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N26" s="60" t="s">
         <v>18</v>
@@ -3838,10 +3958,10 @@
         <v>LIBRE</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N28" s="60" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O28" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N28,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3854,10 +3974,10 @@
         <v>LIBRE</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N29" s="60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O29" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N29,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3870,7 +3990,7 @@
         <v>LIBRE</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N30" s="61"/>
     </row>
@@ -3880,10 +4000,10 @@
         <v>LIBRE</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N31" s="60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O31" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N31,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3893,7 +4013,7 @@
     <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="10"/>
       <c r="N32" s="60" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O32" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N32,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3906,10 +4026,10 @@
         <v>LIBRE</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N33" s="60" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O33" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N33,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -3922,7 +4042,7 @@
         <v>LIBRE</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N34" s="60" t="s">
         <v>27</v>
@@ -3989,7 +4109,7 @@
         <v>11</v>
       </c>
       <c r="N38" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O38" s="80" t="str">
         <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$25:$E$45))&gt;0,INDEX(Pinout_InMoov!$D$25:$E$45,MATCH(N38,Pinout_InMoov!$E$25:$E$45,0),1),"LIBRE")</f>
@@ -4012,7 +4132,7 @@
         <v>LIBRE</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -4054,176 +4174,176 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="114"/>
+        <v>84</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S4" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V4" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="118" t="str">
+        <v>82</v>
+      </c>
+      <c r="R5" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S5" s="60" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="T5" s="82"/>
       <c r="V5" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="W5" s="118" t="str">
+        <v>116</v>
+      </c>
+      <c r="W5" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V5=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V5,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" s="118" t="str">
+        <v>83</v>
+      </c>
+      <c r="R6" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S6" s="60" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="T6" s="82"/>
       <c r="V6" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="118" t="str">
+        <v>117</v>
+      </c>
+      <c r="W6" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V6=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V6,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="118" t="str">
+        <v>86</v>
+      </c>
+      <c r="R7" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S7" s="60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="T7" s="82"/>
       <c r="V7" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="118" t="str">
+        <v>118</v>
+      </c>
+      <c r="W7" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V7=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V7,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R8" s="118" t="str">
+      <c r="R8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S8" s="60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="T8" s="82"/>
       <c r="V8" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8" s="118" t="str">
+        <v>119</v>
+      </c>
+      <c r="W8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V8=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V8,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R9" s="118" t="str">
+      <c r="R9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S9" s="60" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="T9" s="82"/>
       <c r="V9" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="W9" s="118" t="str">
+        <v>120</v>
+      </c>
+      <c r="W9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V9=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V9,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R10" s="118" t="str">
+      <c r="R10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S10" s="60" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="T10" s="82"/>
       <c r="V10" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="W10" s="118" t="str">
+        <v>121</v>
+      </c>
+      <c r="W10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V10=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V10,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="118" t="str">
+        <v>88</v>
+      </c>
+      <c r="R11" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S11" s="60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="T11" s="82"/>
       <c r="V11" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="W11" s="118" t="str">
+        <v>122</v>
+      </c>
+      <c r="W11" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V11=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V11,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N12" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="118" t="str">
+        <v>87</v>
+      </c>
+      <c r="R12" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T12" s="82"/>
       <c r="V12" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="W12" s="118" t="str">
+        <v>123</v>
+      </c>
+      <c r="W12" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V12=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V12,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
@@ -4231,20 +4351,20 @@
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="55"/>
       <c r="N13" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="118" t="str">
+        <v>85</v>
+      </c>
+      <c r="R13" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="T13" s="82"/>
       <c r="V13" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="W13" s="118" t="str">
+        <v>124</v>
+      </c>
+      <c r="W13" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V13=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V13,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
@@ -4252,205 +4372,205 @@
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="55"/>
       <c r="N14" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" s="118" t="str">
+        <v>70</v>
+      </c>
+      <c r="R14" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T14" s="82"/>
       <c r="V14" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="W14" s="118" t="str">
+        <v>125</v>
+      </c>
+      <c r="W14" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V14=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V14,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="118" t="str">
+      <c r="O15" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>ROLLING NECK LEFT</v>
       </c>
-      <c r="R15" s="118" t="str">
+      <c r="R15" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T15" s="82"/>
       <c r="V15" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="W15" s="118" t="str">
+        <v>126</v>
+      </c>
+      <c r="W15" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V15=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V15,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="63" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N16" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="118" t="str">
+      <c r="O16" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>ROLLING NECK RIGHT</v>
       </c>
-      <c r="R16" s="118" t="str">
+      <c r="R16" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="T16" s="82"/>
       <c r="V16" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="W16" s="118" t="str">
+        <v>127</v>
+      </c>
+      <c r="W16" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V16=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V16,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="17" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="57" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N17" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="O17" s="118" t="str">
+        <v>96</v>
+      </c>
+      <c r="O17" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R17" s="118" t="str">
+      <c r="R17" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="T17" s="82"/>
       <c r="V17" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="W17" s="118" t="str">
+        <v>128</v>
+      </c>
+      <c r="W17" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V17=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V17,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="18" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="63" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N18" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18" s="118" t="str">
+        <v>97</v>
+      </c>
+      <c r="O18" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R18" s="118" t="str">
+      <c r="R18" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="T18" s="82"/>
       <c r="V18" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="W18" s="118" t="str">
+        <v>129</v>
+      </c>
+      <c r="W18" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V18=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V18,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="19" spans="5:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="118" t="str">
+      <c r="O19" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R19" s="118" t="str">
+      <c r="R19" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S19" s="60" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T19" s="82"/>
       <c r="V19" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="W19" s="118" t="str">
+        <v>115</v>
+      </c>
+      <c r="W19" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V19=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V19,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="20" spans="5:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="113" t="s">
-        <v>76</v>
+      <c r="F20" s="118" t="s">
+        <v>70</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" s="118" t="str">
+        <v>95</v>
+      </c>
+      <c r="O20" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
-      <c r="R20" s="118" t="str">
+      <c r="R20" s="88" t="str">
         <f>IF(SUMPRODUCT(--(S20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(S20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="S20" s="60" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T20" s="82"/>
       <c r="V20" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="W20" s="118" t="str">
+        <v>114</v>
+      </c>
+      <c r="W20" s="88" t="str">
         <f>IF(SUMPRODUCT(--(V20=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(V20,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="21" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="113"/>
+      <c r="F21" s="118"/>
       <c r="N21" s="83"/>
-      <c r="O21" s="119"/>
+      <c r="O21" s="89"/>
       <c r="S21" s="84" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="V21" s="84" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="118" t="str">
+      <c r="O22" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N22=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N22,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO POIGNET</v>
       </c>
@@ -4460,61 +4580,61 @@
       <c r="N23" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="118" t="str">
+      <c r="O23" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N23=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N23,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO AURICULAIRE</v>
       </c>
     </row>
     <row r="24" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="118" t="str">
+      <c r="E24" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N24" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="118" t="str">
+      <c r="O24" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N24=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N24,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO ANNULAIRE</v>
       </c>
     </row>
     <row r="25" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="118" t="str">
+      <c r="E25" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N25" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="118" t="str">
+      <c r="O25" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N25=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N25,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO MAJEUR</v>
       </c>
     </row>
     <row r="26" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="118" t="str">
+      <c r="E26" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N26" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="118" t="str">
+      <c r="O26" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N26=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N26,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO INDEX</v>
       </c>
     </row>
     <row r="27" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="118" t="str">
+      <c r="E27" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
@@ -4524,115 +4644,115 @@
       <c r="N27" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="118" t="str">
+      <c r="O27" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N27=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N27,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO POUCE</v>
       </c>
     </row>
     <row r="28" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="118" t="str">
+      <c r="E28" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N28" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="118" t="str">
+        <v>94</v>
+      </c>
+      <c r="O28" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N28=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N28,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="29" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="118" t="str">
+      <c r="E29" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N29" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="O29" s="118" t="str">
+        <v>93</v>
+      </c>
+      <c r="O29" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N29=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N29,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="30" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="118" t="str">
+      <c r="E30" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F30=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F30,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N30" s="61"/>
-      <c r="O30" s="119"/>
+      <c r="O30" s="89"/>
     </row>
     <row r="31" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="118" t="str">
+      <c r="E31" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N31" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="O31" s="118" t="str">
+        <v>90</v>
+      </c>
+      <c r="O31" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N31=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N31,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="32" spans="5:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="119"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="83"/>
       <c r="N32" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="O32" s="118" t="str">
+        <v>91</v>
+      </c>
+      <c r="O32" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N32=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N32,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="118" t="str">
+      <c r="E33" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N33" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="O33" s="118" t="str">
+        <v>92</v>
+      </c>
+      <c r="O33" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N33=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N33,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="34" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="118" t="str">
+      <c r="E34" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N34" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="118" t="str">
+      <c r="O34" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N34=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N34,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO OMOPLATE</v>
       </c>
     </row>
     <row r="35" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="118" t="str">
+      <c r="E35" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR AURICULAIRE</v>
       </c>
@@ -4642,13 +4762,13 @@
       <c r="N35" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="118" t="str">
+      <c r="O35" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N35=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N35,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO EPAULE</v>
       </c>
     </row>
     <row r="36" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="118" t="str">
+      <c r="E36" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR ANNULAIRE</v>
       </c>
@@ -4658,13 +4778,13 @@
       <c r="N36" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="118" t="str">
+      <c r="O36" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N36=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N36,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO ROTATION</v>
       </c>
     </row>
     <row r="37" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="118" t="str">
+      <c r="E37" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR MAJEUR</v>
       </c>
@@ -4674,13 +4794,13 @@
       <c r="N37" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="118" t="str">
+      <c r="O37" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N37=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N37,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>SERVO BICEP</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="118" t="str">
+      <c r="E38" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR INDEX</v>
       </c>
@@ -4688,15 +4808,15 @@
         <v>11</v>
       </c>
       <c r="N38" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="O38" s="118" t="str">
+        <v>89</v>
+      </c>
+      <c r="O38" s="88" t="str">
         <f>IF(SUMPRODUCT(--(N38=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(N38,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="39" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="118" t="str">
+      <c r="E39" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F39=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F39,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>CAPTEUR POUCE</v>
       </c>
@@ -4706,12 +4826,12 @@
       <c r="N39" s="83"/>
     </row>
     <row r="40" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="118" t="str">
+      <c r="E40" s="88" t="str">
         <f>IF(SUMPRODUCT(--(F40=Pinout_InMoov!$E$8:$E$24))&gt;0,INDEX(Pinout_InMoov!$D$8:$E$24,MATCH(F40,Pinout_InMoov!$E$8:$E$24,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N40" s="83"/>
     </row>
@@ -4736,7 +4856,7 @@
   <dimension ref="A2:N18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4747,19 +4867,19 @@
   <sheetData>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="118" t="str">
+        <v>70</v>
+      </c>
+      <c r="H4" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I4=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I4,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
@@ -4769,94 +4889,94 @@
       <c r="M4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="118" t="str">
+      <c r="N4" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M4=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M4,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M5" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="118" t="str">
+        <v>96</v>
+      </c>
+      <c r="N5" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M5=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M5,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="118" t="str">
+        <v>97</v>
+      </c>
+      <c r="N6" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M6=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M6,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="118" t="str">
+        <v>86</v>
+      </c>
+      <c r="H7" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I7=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I7,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M7" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="118" t="str">
+      <c r="N7" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M7=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M7,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v xml:space="preserve">NÉOPIXEL ESTOMAC (16 LEDS) </v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="118" t="str">
+      <c r="H8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="118" t="str">
+        <v>95</v>
+      </c>
+      <c r="N8" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M8=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M8,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="118" t="str">
+      <c r="H9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="118" t="str">
+      <c r="N9" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M9=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M9,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="118" t="str">
+      <c r="H10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>VOIX INMOOV</v>
       </c>
@@ -4866,111 +4986,111 @@
       <c r="M10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="118" t="str">
+      <c r="N10" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M10=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M10,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>SERVO BOUCHE</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="118" t="str">
+      <c r="H11" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="118" t="str">
+      <c r="N11" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M11=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M11,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="118" t="str">
+      <c r="H12" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="118" t="str">
+      <c r="N12" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M12=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M12,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="118" t="str">
+      <c r="H13" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M13" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="118" t="str">
+      <c r="N13" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M13=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M13,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="118" t="str">
+      <c r="H14" s="88" t="str">
         <f>IF(SUMPRODUCT(--(I14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(I14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
       <c r="I14" s="59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="118" t="str">
+      <c r="N14" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M14=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M14,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M15" s="84" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="84" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M17" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="118" t="str">
+        <v>94</v>
+      </c>
+      <c r="N17" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M17=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M17,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
     </row>
     <row r="18" spans="9:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M18" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="118" t="str">
+        <v>93</v>
+      </c>
+      <c r="N18" s="88" t="str">
         <f>IF(SUMPRODUCT(--(M18=Pinout_InMoov!$E$46:$E$48))&gt;0,INDEX(Pinout_InMoov!$D$46:$E$48,MATCH(M18,Pinout_InMoov!$E$46:$E$48,0),1),"LIBRE")</f>
         <v>LIBRE</v>
       </c>
